--- a/nodes_source_analyses/energy/industry/industry_other_paper_flexibility_p2h_network_gas_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_other_paper_flexibility_p2h_network_gas_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD54C05-643A-AA4A-81A0-DA75D7D261B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01CE0F-8184-D542-9CDA-664DC096AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
   <si>
     <t>Source</t>
   </si>
@@ -287,21 +290,6 @@
   </si>
   <si>
     <t>Technical lifetime of the plant</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
   </si>
   <si>
     <t>Land use of plant</t>
@@ -614,6 +602,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1931,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1950,9 +1940,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2010,7 +1997,12 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3257,12 +3249,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -3288,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3434,60 +3426,60 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="2" width="3.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="203" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
+      <c r="B2" s="198" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="206"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="209"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="206"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
@@ -3561,7 +3553,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="162"/>
       <c r="C12" s="147" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="164">
@@ -3570,11 +3562,11 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="138" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="165" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J12" s="163"/>
       <c r="K12" s="24"/>
@@ -3583,12 +3575,12 @@
       <c r="A13" s="24"/>
       <c r="B13" s="162"/>
       <c r="C13" s="148" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="184">
+      <c r="E13" s="180">
         <f>'Research data'!H8</f>
         <v>0.995</v>
       </c>
@@ -3598,7 +3590,7 @@
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="165" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J13" s="163"/>
       <c r="K13" s="24"/>
@@ -3607,22 +3599,22 @@
       <c r="A14" s="96"/>
       <c r="B14" s="151"/>
       <c r="C14" s="149" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="183">
+      <c r="E14" s="179">
         <f>'Research data'!H9</f>
         <v>50.251256281407038</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="130" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="165" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J14" s="166"/>
       <c r="K14" s="33"/>
@@ -3631,7 +3623,7 @@
       <c r="A15" s="96"/>
       <c r="B15" s="151"/>
       <c r="C15" s="150" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="164">
@@ -3642,7 +3634,7 @@
       <c r="G15" s="94"/>
       <c r="H15" s="94"/>
       <c r="I15" s="167" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J15" s="166"/>
       <c r="K15" s="33"/>
@@ -3663,7 +3655,7 @@
       <c r="G16" s="94"/>
       <c r="H16" s="94"/>
       <c r="I16" s="167" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J16" s="166"/>
     </row>
@@ -3682,85 +3674,85 @@
       <c r="G17" s="94"/>
       <c r="H17" s="94"/>
       <c r="I17" s="167" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J17" s="166"/>
     </row>
-    <row r="18" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B18" s="198"/>
+    <row r="18" spans="1:10" s="192" customFormat="1" ht="17" thickBot="1">
+      <c r="B18" s="193"/>
       <c r="C18" s="156" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="199">
+      <c r="E18" s="194">
         <f>'Research data'!H15</f>
         <v>50</v>
       </c>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201" t="str">
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196" t="str">
         <f>'Research data'!N15</f>
         <v>This simulates instantaneous use</v>
       </c>
-      <c r="J18" s="202"/>
-    </row>
-    <row r="19" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B19" s="198"/>
+      <c r="J18" s="197"/>
+    </row>
+    <row r="19" spans="1:10" s="192" customFormat="1" ht="17" thickBot="1">
+      <c r="B19" s="193"/>
       <c r="C19" s="156" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="199">
+      <c r="E19" s="194">
         <f>'Research data'!H16</f>
         <v>0</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201" t="str">
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="196" t="str">
         <f>'Research data'!N16</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J19" s="202"/>
-    </row>
-    <row r="20" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B20" s="198"/>
+      <c r="J19" s="197"/>
+    </row>
+    <row r="20" spans="1:10" s="192" customFormat="1" ht="17" thickBot="1">
+      <c r="B20" s="193"/>
       <c r="C20" s="156" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="199">
+      <c r="E20" s="194">
         <f>'Research data'!H17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201" t="str">
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196" t="str">
         <f>'Research data'!N17</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J20" s="202"/>
-    </row>
-    <row r="21" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B21" s="198"/>
+      <c r="J20" s="197"/>
+    </row>
+    <row r="21" spans="1:10" s="192" customFormat="1" ht="17" thickBot="1">
+      <c r="B21" s="193"/>
       <c r="C21" s="156" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="199">
+      <c r="E21" s="194">
         <f>'Research data'!H18</f>
         <v>0</v>
       </c>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201" t="str">
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="196" t="str">
         <f>'Research data'!N18</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J21" s="202"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="152"/>
@@ -3804,7 +3796,7 @@
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="171" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J24" s="170"/>
     </row>
@@ -3822,21 +3814,21 @@
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="120" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="171" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J25" s="170"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="B26" s="172"/>
       <c r="C26" s="153" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D26" s="115" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E26" s="164">
         <f>'Research data'!H26</f>
@@ -3844,18 +3836,18 @@
       </c>
       <c r="F26" s="116"/>
       <c r="G26" s="114" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H26" s="116"/>
       <c r="I26" s="171" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1">
       <c r="B27" s="172"/>
       <c r="C27" s="153" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="164">
@@ -3864,18 +3856,18 @@
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="119" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H27" s="116"/>
       <c r="I27" s="174" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J27" s="173"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="B28" s="172"/>
       <c r="C28" s="153" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D28" s="115"/>
       <c r="E28" s="164">
@@ -3884,18 +3876,18 @@
       </c>
       <c r="F28" s="116"/>
       <c r="G28" s="119" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H28" s="116"/>
       <c r="I28" s="175" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1">
       <c r="B29" s="172"/>
       <c r="C29" s="154" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D29" s="115"/>
       <c r="E29" s="164">
@@ -3904,18 +3896,18 @@
       </c>
       <c r="F29" s="116"/>
       <c r="G29" s="119" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H29" s="116"/>
       <c r="I29" s="175" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="B30" s="172"/>
       <c r="C30" s="153" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D30" s="115"/>
       <c r="E30" s="164">
@@ -3924,11 +3916,11 @@
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="120" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H30" s="116"/>
       <c r="I30" s="174" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J30" s="173"/>
     </row>
@@ -3949,8 +3941,8 @@
         <v>63</v>
       </c>
       <c r="H31" s="94"/>
-      <c r="I31" s="212" t="s">
-        <v>149</v>
+      <c r="I31" s="207" t="s">
+        <v>144</v>
       </c>
       <c r="J31" s="166"/>
     </row>
@@ -3970,32 +3962,38 @@
       <c r="G32" s="94"/>
       <c r="H32" s="94"/>
       <c r="I32" s="167" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J32" s="166"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="96"/>
       <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="169"/>
+      <c r="C33" s="211" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="168">
+        <v>22</v>
+      </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
+      <c r="I33" s="212" t="s">
+        <v>115</v>
+      </c>
       <c r="J33" s="166"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="96"/>
       <c r="B34" s="151"/>
-      <c r="C34" s="162" t="s">
-        <v>5</v>
-      </c>
+      <c r="C34" s="151"/>
       <c r="D34" s="21"/>
       <c r="E34" s="169"/>
       <c r="F34" s="94"/>
-      <c r="G34" s="34"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="94"/>
       <c r="I34" s="94"/>
       <c r="J34" s="166"/>
@@ -4003,95 +4001,91 @@
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="151"/>
-      <c r="C35" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="168">
-        <f>'Research data'!H34</f>
-        <v>15</v>
-      </c>
+      <c r="C35" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="94"/>
-      <c r="G35" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="G35" s="34"/>
       <c r="H35" s="94"/>
-      <c r="I35" s="171" t="s">
-        <v>100</v>
-      </c>
+      <c r="I35" s="94"/>
       <c r="J35" s="166"/>
     </row>
     <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="151"/>
       <c r="C36" s="151" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="168">
-        <f>'Research data'!H35</f>
-        <v>0</v>
+        <f>'Research data'!H34</f>
+        <v>15</v>
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="94" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="94"/>
-      <c r="I36" s="176"/>
+      <c r="I36" s="171" t="s">
+        <v>95</v>
+      </c>
       <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="151"/>
       <c r="C37" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="168">
+        <f>'Research data'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="94"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="166"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="177">
+      <c r="E38" s="177">
         <f>'Research data'!H36</f>
         <v>0</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="166"/>
-    </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="168">
-        <v>0</v>
-      </c>
       <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
+      <c r="G38" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="H38" s="94"/>
-      <c r="I38" s="167" t="s">
-        <v>123</v>
-      </c>
+      <c r="I38" s="178"/>
       <c r="J38" s="166"/>
     </row>
     <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A39" s="99"/>
       <c r="B39" s="151"/>
-      <c r="C39" s="156" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="21"/>
+      <c r="C39" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="E39" s="168">
         <v>0</v>
       </c>
@@ -4099,7 +4093,7 @@
       <c r="G39" s="94"/>
       <c r="H39" s="94"/>
       <c r="I39" s="167" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J39" s="166"/>
     </row>
@@ -4107,96 +4101,71 @@
       <c r="A40" s="99"/>
       <c r="B40" s="151"/>
       <c r="C40" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="176">
+        <v>57</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="168">
         <v>0</v>
       </c>
       <c r="F40" s="94"/>
       <c r="G40" s="94"/>
       <c r="H40" s="94"/>
       <c r="I40" s="167" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J40" s="166"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="176">
-        <v>0</v>
-      </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J41" s="166"/>
-    </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A42" s="99"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="156" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="176">
-        <v>0</v>
-      </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J42" s="166"/>
-    </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="176">
-        <v>0</v>
-      </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="166"/>
-    </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A44" s="99"/>
-      <c r="B44" s="182"/>
-      <c r="C44" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="176">
-        <v>0</v>
-      </c>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="181"/>
+    <row r="41" spans="1:10" ht="17" thickBot="1">
+      <c r="A41" s="96"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="146"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="96"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="96"/>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
@@ -4208,7 +4177,7 @@
     <row r="46" spans="1:10">
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
+      <c r="C46" s="145"/>
       <c r="D46" s="96"/>
       <c r="E46" s="96"/>
       <c r="F46" s="96"/>
@@ -4232,7 +4201,8 @@
     <row r="48" spans="1:10">
       <c r="A48" s="96"/>
       <c r="B48" s="96"/>
-      <c r="C48" s="146"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="96"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
@@ -4240,90 +4210,54 @@
       <c r="I48" s="96"/>
       <c r="J48" s="96"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:3">
       <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="C49" s="146"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="96"/>
+      <c r="C50" s="146"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="146"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="146"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="146"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:3">
       <c r="C54" s="146"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:3">
       <c r="C55" s="146"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:3">
       <c r="C56" s="146"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:3">
       <c r="C57" s="146"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:3">
       <c r="C58" s="146"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:3">
       <c r="C59" s="146"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:3">
       <c r="C60" s="146"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:3">
       <c r="C61" s="146"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:3">
       <c r="C62" s="146"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:3">
       <c r="C63" s="146"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:3">
       <c r="C64" s="146"/>
     </row>
     <row r="65" spans="3:3">
@@ -4382,18 +4316,6 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="146"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="146"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="146"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="146"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4409,32 +4331,32 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD46"/>
+      <selection activeCell="A38" sqref="A38:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="35" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="35" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="35" customWidth="1"/>
     <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="35"/>
+    <col min="16" max="16" width="2.5" style="35" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
@@ -4472,11 +4394,11 @@
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K4" s="81"/>
       <c r="L4" s="81" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M4" s="81"/>
       <c r="N4" s="81" t="s">
@@ -4517,8 +4439,8 @@
     </row>
     <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="38"/>
-      <c r="C7" s="196" t="s">
-        <v>101</v>
+      <c r="C7" s="191" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -4540,7 +4462,7 @@
     </row>
     <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="38"/>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="191" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="43"/>
@@ -4566,7 +4488,7 @@
     <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="38"/>
       <c r="C9" s="130" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -4617,12 +4539,12 @@
       <c r="A11" s="96"/>
       <c r="B11" s="97"/>
       <c r="C11" s="117" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="95"/>
       <c r="F11" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H11" s="98">
         <f>L11</f>
@@ -4636,7 +4558,7 @@
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="118" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O11" s="96"/>
     </row>
@@ -4699,13 +4621,13 @@
     <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
-      <c r="C15" s="195" t="s">
-        <v>140</v>
+      <c r="C15" s="190" t="s">
+        <v>135</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="98">
@@ -4718,14 +4640,14 @@
         <v>50</v>
       </c>
       <c r="N15" s="118" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O15" s="96"/>
     </row>
     <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="190" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="12"/>
@@ -4741,14 +4663,14 @@
         <v>0</v>
       </c>
       <c r="N16" s="118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O16" s="96"/>
     </row>
     <row r="17" spans="1:15" ht="17" thickBot="1">
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
-      <c r="C17" s="195" t="s">
+      <c r="C17" s="190" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="12"/>
@@ -4764,15 +4686,15 @@
         <v>0</v>
       </c>
       <c r="N17" s="118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O17" s="96"/>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
-      <c r="C18" s="195" t="s">
-        <v>144</v>
+      <c r="C18" s="190" t="s">
+        <v>139</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -4787,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O18" s="96"/>
     </row>
@@ -4858,8 +4780,8 @@
     <row r="24" spans="1:15" ht="17" thickBot="1">
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
-      <c r="C24" s="193" t="s">
-        <v>145</v>
+      <c r="C24" s="188" t="s">
+        <v>140</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="101"/>
@@ -4881,8 +4803,8 @@
     <row r="25" spans="1:15" ht="17" thickBot="1">
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
-      <c r="C25" s="194" t="s">
-        <v>146</v>
+      <c r="C25" s="189" t="s">
+        <v>141</v>
       </c>
       <c r="F25" s="107" t="s">
         <v>51</v>
@@ -4898,14 +4820,14 @@
       <c r="L25" s="103"/>
       <c r="M25" s="103"/>
       <c r="N25" s="110" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17" thickBot="1">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
-      <c r="C26" s="194" t="s">
-        <v>147</v>
+      <c r="C26" s="189" t="s">
+        <v>142</v>
       </c>
       <c r="F26" s="102" t="s">
         <v>60</v>
@@ -4921,14 +4843,14 @@
       <c r="L26" s="103"/>
       <c r="M26" s="103"/>
       <c r="N26" s="110" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17" thickBot="1">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
-      <c r="C27" s="185" t="s">
-        <v>85</v>
+      <c r="C27" s="181" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="122"/>
       <c r="E27" s="122"/>
@@ -4947,14 +4869,14 @@
       <c r="K27" s="125"/>
       <c r="M27" s="122"/>
       <c r="N27" s="126" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
-      <c r="C28" s="185" t="s">
-        <v>86</v>
+      <c r="C28" s="181" t="s">
+        <v>81</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="122"/>
@@ -4973,14 +4895,14 @@
       <c r="K28" s="125"/>
       <c r="M28" s="122"/>
       <c r="N28" s="126" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17" thickBot="1">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
-      <c r="C29" s="185" t="s">
-        <v>94</v>
+      <c r="C29" s="181" t="s">
+        <v>89</v>
       </c>
       <c r="F29" s="121" t="s">
         <v>20</v>
@@ -5001,13 +4923,13 @@
     <row r="30" spans="1:15" ht="17" thickBot="1">
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
-      <c r="C30" s="186" t="s">
-        <v>88</v>
+      <c r="C30" s="182" t="s">
+        <v>83</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
       <c r="F30" s="121" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G30" s="122"/>
       <c r="H30" s="124">
@@ -5021,20 +4943,20 @@
       <c r="K30" s="125"/>
       <c r="M30" s="122"/>
       <c r="N30" s="118" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="122"/>
       <c r="B31" s="123"/>
-      <c r="C31" s="187"/>
+      <c r="C31" s="183"/>
       <c r="H31" s="41"/>
       <c r="J31" s="41"/>
       <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:15">
       <c r="B32" s="38"/>
-      <c r="C32" s="187"/>
+      <c r="C32" s="183"/>
       <c r="H32" s="41"/>
       <c r="J32" s="41"/>
       <c r="N32" s="93"/>
@@ -5057,7 +4979,7 @@
     <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="189" t="s">
+      <c r="C34" s="184" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="102" t="s">
@@ -5080,8 +5002,8 @@
     <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
-      <c r="C35" s="190" t="s">
-        <v>77</v>
+      <c r="C35" s="185" t="s">
+        <v>72</v>
       </c>
       <c r="F35" s="102" t="s">
         <v>1</v>
@@ -5097,20 +5019,20 @@
       </c>
       <c r="M35" s="104"/>
       <c r="N35" s="118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
-      <c r="C36" s="191" t="s">
-        <v>76</v>
+      <c r="C36" s="186" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="102" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="106">
-        <f t="shared" ref="H36:H42" si="1">L36</f>
+        <f t="shared" ref="H36:H37" si="1">L36</f>
         <v>0</v>
       </c>
       <c r="I36" s="104"/>
@@ -5120,13 +5042,13 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="97"/>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="187" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
@@ -5139,97 +5061,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="188" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="41"/>
-      <c r="L38" s="135">
-        <v>0</v>
-      </c>
-      <c r="N38" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="188" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="L39" s="135">
-        <v>0</v>
-      </c>
-      <c r="N39" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" thickBot="1">
-      <c r="A40" s="96"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="188" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="41"/>
-      <c r="L40" s="135">
-        <v>0</v>
-      </c>
-      <c r="N40" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1">
-      <c r="A41" s="96"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="188" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="41"/>
-      <c r="L41" s="135">
-        <v>0</v>
-      </c>
-      <c r="N41" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="188" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="41"/>
-      <c r="L42" s="135">
-        <v>0</v>
-      </c>
-      <c r="N42" s="118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5249,18 +5081,18 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="48"/>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5340,13 +5172,13 @@
     <row r="7" spans="2:10">
       <c r="B7" s="51"/>
       <c r="C7" s="132" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D7" s="133" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F7" s="47">
         <v>2015</v>
@@ -5358,16 +5190,16 @@
         <v>42558</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="51"/>
       <c r="C8" s="131" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -5392,7 +5224,7 @@
     <row r="10" spans="2:10">
       <c r="B10" s="51"/>
       <c r="C10" s="108" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5418,7 +5250,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="51"/>
       <c r="C12" s="108" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5482,10 +5314,10 @@
       <c r="B19" s="51"/>
       <c r="C19" s="139"/>
       <c r="D19" s="142" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E19" s="142" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F19" s="48">
         <v>2015</v>
@@ -5497,7 +5329,7 @@
         <v>42612</v>
       </c>
       <c r="J19" s="143" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -5514,13 +5346,13 @@
     <row r="21" spans="2:10">
       <c r="B21" s="51"/>
       <c r="C21" s="139" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D21" s="140" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E21" s="140" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F21" s="47">
         <v>2013</v>
@@ -5532,10 +5364,10 @@
         <v>42612</v>
       </c>
       <c r="I21" s="87" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J21" s="141" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -5574,18 +5406,18 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="57"/>
-    <col min="14" max="14" width="15.7109375" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="57"/>
-    <col min="16" max="16" width="54.7109375" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="57"/>
+    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="57" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="57"/>
+    <col min="14" max="14" width="15.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="57"/>
+    <col min="16" max="16" width="54.6640625" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
@@ -5813,7 +5645,7 @@
     <row r="16" spans="1:15">
       <c r="B16" s="63"/>
       <c r="C16" s="64" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -5836,10 +5668,10 @@
         <v>2190</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
@@ -5854,7 +5686,7 @@
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="G18" s="57" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
@@ -5947,7 +5779,7 @@
     <row r="24" spans="2:15">
       <c r="B24" s="63"/>
       <c r="C24" s="64" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D24" s="64">
         <v>89</v>
@@ -6056,7 +5888,7 @@
         <v>54</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H30" s="64"/>
       <c r="I30" s="64"/>
@@ -6197,7 +6029,7 @@
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="127" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H39" s="127"/>
       <c r="I39" s="127"/>
@@ -6305,7 +6137,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
@@ -6359,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K52" s="64"/>
       <c r="L52" s="64"/>
@@ -6379,7 +6211,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
@@ -6395,7 +6227,7 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
@@ -6415,7 +6247,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K55" s="64"/>
       <c r="L55" s="64"/>
@@ -6431,10 +6263,10 @@
         <v>25</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G56" s="57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K56" s="64"/>
       <c r="L56" s="64"/>
@@ -6449,7 +6281,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G57" s="57" t="s">
         <v>24</v>
@@ -6595,7 +6427,7 @@
     <row r="74" spans="2:15">
       <c r="B74" s="63"/>
       <c r="C74" s="142" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N74" s="64"/>
       <c r="O74" s="64"/>
@@ -6628,7 +6460,7 @@
         <v>54</v>
       </c>
       <c r="G78" s="57" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N78" s="64"/>
       <c r="O78" s="64"/>
@@ -6837,7 +6669,7 @@
     <row r="140" spans="2:4">
       <c r="B140" s="63"/>
       <c r="C140" s="57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D140" s="57">
         <v>14</v>
@@ -6931,21 +6763,21 @@
       <c r="A163" s="127"/>
       <c r="B163" s="129"/>
       <c r="E163" s="57" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="127"/>
       <c r="B164" s="129"/>
       <c r="E164" s="57" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="127"/>
       <c r="B165" s="129"/>
       <c r="E165" s="57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -7020,7 +6852,7 @@
       <c r="A183" s="127"/>
       <c r="B183" s="129"/>
       <c r="C183" s="57" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7038,7 +6870,7 @@
         <v>54</v>
       </c>
       <c r="G185" s="57" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7048,13 +6880,13 @@
         <v>1</v>
       </c>
       <c r="F186" s="57" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G186" s="57" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I186" s="57" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7065,10 +6897,10 @@
         <v>50</v>
       </c>
       <c r="F187" s="57" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G187" s="57" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="188" spans="1:9">
